--- a/medicine/Enfance/Anne_Percin/Anne_Percin.xlsx
+++ b/medicine/Enfance/Anne_Percin/Anne_Percin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Percin, née le 26 novembre 1970 à Épinal en France, est une écrivaine française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne Percin est née d'un père mécanicien et d'une mère mécanographe. Elle passe son enfance et poursuit des études de lettres à Strasbourg où elle consacrera son mémoire de Maîtrise au mouvement Dada avant d'aller enseigner en région parisienne. Elle vit et travaille aujourd'hui en Bourgogne.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2006 : Point de Côté, Éditions Thierry Magnier
 2007 : Servais des collines, Oskar Jeunesse
@@ -590,20 +606,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Récompenses
-2008 : Né sur X : prix des collégiens de l'Hérault.
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2008 : Né sur X : prix des collégiens de l'Hérault.
 2010 :
 L'Âge d'ange
-Prix des Dévoreurs de livres - 3e[1]
-Prix Hautes-Pyrénées, tout en auteurs - 13-15 ans[2]
-Bonheur fantôme : prix Jean Monnet des Jeunes Européens[3]
-2012 : Le Premier Été : prix Biblioblog[4]
+Prix des Dévoreurs de livres - 3e
+Prix Hautes-Pyrénées, tout en auteurs - 13-15 ans
+Bonheur fantôme : prix Jean Monnet des Jeunes Européens
+2012 : Le Premier Été : prix Biblioblog
 2015 :
 Western Girl : prix des Zincorréziens
 Les Singuliers : prix Charles Oulmont de la Fondation de France
-2017 : Ma mère, le crabe et moi : Prix Gr'Aisne de critique (2017)
-Sélections
-Sélection du prix littéraire des Hebdos en Région 2010 (Bonheur Fantôme)
+2017 : Ma mère, le crabe et moi : Prix Gr'Aisne de critique (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne_Percin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne_Percin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sélections</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sélection du prix littéraire des Hebdos en Région 2010 (Bonheur Fantôme)
 Sélection Prix de la citoyenneté, décerné par la F.O.L. (L'Âge d'ange)
 Sélection Prix 2010 de la Télévision Suisse Romande (L'Âge d'ange)
 Sélection La 25e heure du livre, Le Mans (L'Âge d'ange)
@@ -615,31 +670,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Anne_Percin</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anne_Percin</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2018 : Ma mère, le crabe et moi de Yann Samuell, téléfilm adapté du roman éponyme.</t>
         </is>
